--- a/DOC/组网格式.xlsx
+++ b/DOC/组网格式.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrBlu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypro\STM8\CC1101_lowpower_net\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>起始</t>
   </si>
@@ -45,26 +45,6 @@
     <t>01ACK</t>
   </si>
   <si>
-    <t>02获取网关地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03获取终端地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04终端申请地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05返回申请地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06数据透传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无线协议帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +83,248 @@
   </si>
   <si>
     <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;——ACK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关发送数据到终端后等待终端发送ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>网关收到终端A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CK后结束发送</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时机制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>载波防碰撞1s，接受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACK2s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;——数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.——&gt;数据*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.——&gt;ACK*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*表示持续发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.&lt;——ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMD</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取网关地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取终端地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终端申请地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -110,11 +332,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回申请地址</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,120 +352,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>…</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;——ACK</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关发送数据到终端后等待终端发送ACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>网关收到终端A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CK后结束发送</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时机制：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>载波防碰撞1s，接受</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACK2s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;——数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.——&gt;数据*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.——&gt;ACK*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*表示持续发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.&lt;——ACK</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据透传</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,7 +531,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -659,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -670,20 +792,21 @@
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -696,11 +819,14 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -713,11 +839,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -727,189 +853,198 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/组网格式.xlsx
+++ b/DOC/组网格式.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>起始</t>
   </si>
@@ -364,6 +364,70 @@
       </rPr>
       <t>数据透传</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端无线协议帧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据透传</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终端申请地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03网关间同步地址池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本机地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01(网关地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local addr(终端地址)——&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +450,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -416,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,11 +505,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,270 +866,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="8">
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/组网格式.xlsx
+++ b/DOC/组网格式.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
   <si>
     <t>起始</t>
   </si>
@@ -395,6 +395,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>03网关间同步地址池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本机地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01(网关地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local addr(终端地址)——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>02</t>
     </r>
@@ -411,7 +431,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03网关间同步地址池</t>
+    <t>target addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02配置目标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C本机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91无线接收方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-254表示无线地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01数据透传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02配置目标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口发送协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（1byte）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口接收协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-254表示无线地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02配置目标地址——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03获取本机地址——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01数据透传——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01数据透传——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03返回本机的地址——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,15 +610,353 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x01(网关地址)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local addr(终端地址)——&gt;</t>
+    <t>状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02返回指令执行结果——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X01</t>
+  </si>
+  <si>
+    <t>0X02</t>
+  </si>
+  <si>
+    <t>0X03</t>
+  </si>
+  <si>
+    <t>0X04</t>
+  </si>
+  <si>
+    <t>0X05</t>
+  </si>
+  <si>
+    <t>0X06</t>
+  </si>
+  <si>
+    <t>0X07</t>
+  </si>
+  <si>
+    <t>0X08</t>
+  </si>
+  <si>
+    <r>
+      <t>UART_ACK_SEND_TO_TERMINAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_ACK_GET_FROM_GATEWAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_ACK_GET_FROM_TERMINAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_RF_SEND_TERMINAL_ADDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_RF_SET_TERMINAL_ADDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_RF_DATA_SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_RF_SEND_CCA_BUSY</t>
+  </si>
+  <si>
+    <t>UART_RF_DATA_SEND_FAIL</t>
+  </si>
+  <si>
+    <r>
+      <t>0X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功向网关发送A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功向终端发送A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到来自终端的ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线成功发送配置终端地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线成功设置终端地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功设置本地地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时，无线信道忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向网关发送ACK失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向终端发送ACK失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线发送数据失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_STATUS_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_ACK_SEND_TO_GATEWAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART_SET_LOCAL_ADDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_ACK_SEND_TO_GATEWAY_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_ACK_SEND_TO_TERMINAL_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_RF_SEND_TERMINAL_ADDR_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到来自网关的ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线发送配置终端地址失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +1004,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -483,13 +1012,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,18 +1090,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,74 +1173,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -616,7 +1192,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -866,413 +1442,1100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
     <col min="2" max="2" width="27.109375" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B25" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D25" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E25" s="11">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F25" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E27" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B37" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>0</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>0</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
+        <v>2</v>
+      </c>
+      <c r="D55" s="12">
+        <v>3</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>0</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2</v>
+      </c>
+      <c r="D64" s="12">
+        <v>3</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D95" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D96" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:D30"/>
+  <mergeCells count="13">
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
